--- a/details_variables.xlsx
+++ b/details_variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ludivine/Documents/Université/Master TAL/Année 2020-2021/Semestre 9/UE901 EC2 Fouille de données/toussaint/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ludivine/Documents/Université/Master TAL/Année 2020-2021/Semestre 9/UE901 EC2 Fouille de données/toussaint/Project/data-mining-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47378E0-2DE8-944D-B965-C443D5B400D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DBA93-455B-D44E-A66B-B9F4385691E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="13580" windowHeight="16420" xr2:uid="{33500520-DCAA-4A4B-8199-873BC72304E5}"/>
   </bookViews>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98870E4C-1019-F740-8C8C-B248594F23F1}">
   <dimension ref="A2:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/details_variables.xlsx
+++ b/details_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ludivine/Documents/Université/Master TAL/Année 2020-2021/Semestre 9/UE901 EC2 Fouille de données/toussaint/Project/data-mining-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DBA93-455B-D44E-A66B-B9F4385691E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC026E7-A783-5F44-BC91-73757695CC7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="13580" windowHeight="16420" xr2:uid="{33500520-DCAA-4A4B-8199-873BC72304E5}"/>
+    <workbookView xWindow="10120" yWindow="740" windowWidth="13580" windowHeight="16420" xr2:uid="{33500520-DCAA-4A4B-8199-873BC72304E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="191">
   <si>
     <t>AGER20</t>
   </si>
@@ -586,6 +586,27 @@
   </si>
   <si>
     <t>Arrivé en France apr.s 1998</t>
+  </si>
+  <si>
+    <t>20 à 24 ans</t>
+  </si>
+  <si>
+    <t>25 à 29 ans</t>
+  </si>
+  <si>
+    <t>30 à 39 ans</t>
+  </si>
+  <si>
+    <t>40 à 54 ans</t>
+  </si>
+  <si>
+    <t>55 à 64 ans</t>
+  </si>
+  <si>
+    <t>65 à 79 ans</t>
+  </si>
+  <si>
+    <t>80 ans ou plus</t>
   </si>
 </sst>
 </file>
@@ -956,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98870E4C-1019-F740-8C8C-B248594F23F1}">
-  <dimension ref="A2:D149"/>
+  <dimension ref="A2:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,829 +1049,823 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>11</v>
+      <c r="C18" s="3">
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>23</v>
+      <c r="C23" s="3">
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="D25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
         <v>6</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="3">
         <v>7</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="3">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C45" s="2">
         <v>11</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="2">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="2">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="2">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="2">
-        <v>15</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="2">
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="2">
-        <v>21</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="2">
-        <v>22</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
-        <v>50</v>
+      <c r="C47" s="2">
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C48" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="2">
         <v>21</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2">
-        <v>11</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="2">
-        <v>31</v>
+      <c r="C54" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C55" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C57" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C58" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C60" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C62" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C63" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C66" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C68" s="2">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C69" s="2">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C71" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C72" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" t="s">
-        <v>62</v>
+      <c r="C73" s="2">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C75" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C78" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C79" s="2">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>92</v>
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C80" s="2">
-        <v>7</v>
+      <c r="C80" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C81" s="2">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C84" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C90" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C93" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C94" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>86</v>
+      <c r="C94" s="2">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2">
         <v>1</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>117</v>
+      <c r="D102" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -1858,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1874,388 +1889,450 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
-        <v>24</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>121</v>
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="2">
-        <v>27</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>171</v>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C109" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
-        <v>32</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C111" s="2">
-        <v>44</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C112" s="2">
-        <v>52</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>126</v>
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C114" s="2">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C115" s="2">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C116" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C117" s="2">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>132</v>
-      </c>
-      <c r="B119" t="s">
-        <v>133</v>
-      </c>
       <c r="C119" s="2">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C120" s="2">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C121" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C122" s="2">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C123" s="2">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C125" s="2">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
       <c r="C126" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127" t="s">
-        <v>86</v>
+      <c r="C127" s="2">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>144</v>
+      <c r="A128" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C129" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C130" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C131" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C132" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C133" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="2">
-        <v>7</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>152</v>
+      <c r="C134" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>86</v>
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>153</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C136" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C138" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C139" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C140" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C141" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C142" s="2">
-        <v>25</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>158</v>
+      <c r="C142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C143" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C144" s="2">
+        <v>12</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C145" s="2">
+        <v>21</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C146" s="2">
+        <v>22</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C147" s="2">
+        <v>23</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C148" s="2">
+        <v>24</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="2">
+        <v>25</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="2">
         <v>2</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C145" s="2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C152" s="2">
         <v>3</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C146" s="2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C153" s="2">
         <v>4</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C147" s="2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C154" s="2">
         <v>5</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C148" s="2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C155" s="2">
         <v>6</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C149" s="2" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D156" t="s">
         <v>86</v>
       </c>
     </row>
